--- a/Small_data.xlsx
+++ b/Small_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Operations_assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lunap\OneDrive\Ambiente de Trabalho\1st quarter\Operations optimisation\Operations_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8EB35-18FF-4AA9-B078-BAF5F4351163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{50E8EB35-18FF-4AA9-B078-BAF5F4351163}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{8743C95D-028D-4BE1-84C2-A78D9D14EDF6}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Flight number</t>
   </si>
@@ -54,6 +52,9 @@
   </si>
   <si>
     <t>Departure</t>
+  </si>
+  <si>
+    <t>J324</t>
   </si>
 </sst>
 </file>
@@ -61,10 +62,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -92,12 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,20 +385,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -418,7 +428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -434,13 +444,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>TEXT(11.25/24,"HH:MM")</f>
-        <v>11:15</v>
+        <f>TEXT(12.5/24,"HH:MM")</f>
+        <v>12:30</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>TEXT(15/24,"HH:MM")</f>
@@ -449,6 +459,25 @@
       <c r="D4">
         <v>190</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(11.25/24,"HH:MM")</f>
+        <v>11:15</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>TEXT(12.5/24,"HH:MM")</f>
+        <v>12:30</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
